--- a/data/ProjectList.xlsx
+++ b/data/ProjectList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LF work\LF running courses\CX2002\Assignment\2024S2\data_v1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyeyo\SC2002-Group-Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021DB320-1F74-47EA-8228-03A02A2055DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4A693A-81CC-4934-9EB0-62070F6722E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Project Name</t>
   </si>
@@ -82,6 +82,18 @@
   </si>
   <si>
     <t>Daniel,Emily</t>
+  </si>
+  <si>
+    <t>Beta Breeze</t>
+  </si>
+  <si>
+    <t>Sembahwang</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>David</t>
   </si>
 </sst>
 </file>
@@ -400,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -496,6 +508,47 @@
         <v>18</v>
       </c>
     </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>300000</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>400000</v>
+      </c>
+      <c r="I3" s="1">
+        <v>45703</v>
+      </c>
+      <c r="J3" s="1">
+        <v>45736</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3">
+        <v>4</v>
+      </c>
+      <c r="M3" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/ProjectList.xlsx
+++ b/data/ProjectList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyeyo\SC2002-Group-Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4A693A-81CC-4934-9EB0-62070F6722E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD70DCF-A504-4422-B62E-A4EAB44B50B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -415,13 +415,14 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="9" max="10" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.5546875" customWidth="1"/>
     <col min="13" max="13" width="29.6640625" customWidth="1"/>
   </cols>
@@ -496,7 +497,7 @@
         <v>45703</v>
       </c>
       <c r="J2" s="1">
-        <v>45736</v>
+        <v>46101</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
@@ -537,7 +538,7 @@
         <v>45703</v>
       </c>
       <c r="J3" s="1">
-        <v>45736</v>
+        <v>46101</v>
       </c>
       <c r="K3" t="s">
         <v>21</v>

--- a/data/ProjectList.xlsx
+++ b/data/ProjectList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyeyo\SC2002-Group-Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD70DCF-A504-4422-B62E-A4EAB44B50B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6526AF7-2294-4A36-AE95-E95FC56B7295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>Project Name</t>
   </si>
@@ -93,7 +93,10 @@
     <t>Michael</t>
   </si>
   <si>
-    <t>David</t>
+    <t>Gamme Breeze</t>
+  </si>
+  <si>
+    <t>John</t>
   </si>
 </sst>
 </file>
@@ -412,17 +415,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="9" max="9" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.5546875" customWidth="1"/>
     <col min="13" max="13" width="29.6640625" customWidth="1"/>
   </cols>
@@ -546,8 +548,43 @@
       <c r="L3">
         <v>4</v>
       </c>
-      <c r="M3" t="s">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>300000</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>400000</v>
+      </c>
+      <c r="I4" s="1">
+        <v>46433</v>
+      </c>
+      <c r="J4" s="1">
+        <v>46832</v>
+      </c>
+      <c r="K4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/data/ProjectList.xlsx
+++ b/data/ProjectList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyeyo\SC2002-Group-Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6526AF7-2294-4A36-AE95-E95FC56B7295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B74F7E2-D486-4C43-8872-EE4D0B7A9637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
   <si>
     <t>Project Name</t>
   </si>
@@ -93,10 +93,49 @@
     <t>Michael</t>
   </si>
   <si>
-    <t>Gamme Breeze</t>
-  </si>
-  <si>
     <t>John</t>
+  </si>
+  <si>
+    <t>No 3 room Breeze</t>
+  </si>
+  <si>
+    <t>NTU</t>
+  </si>
+  <si>
+    <t>No 2 room Breeze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joe </t>
+  </si>
+  <si>
+    <t>Alice</t>
+  </si>
+  <si>
+    <t>Completely no room Breeze</t>
+  </si>
+  <si>
+    <t>Hulk</t>
+  </si>
+  <si>
+    <t>Not Yet Open Breeze</t>
+  </si>
+  <si>
+    <t>Visibility</t>
+  </si>
+  <si>
+    <t>Iron Man</t>
+  </si>
+  <si>
+    <t>No Officer Slot Breeze</t>
+  </si>
+  <si>
+    <t>Visibility False Breeze</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
+    <t>false</t>
   </si>
 </sst>
 </file>
@@ -132,9 +171,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -429,7 +469,7 @@
     <col min="13" max="13" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -469,8 +509,11 @@
       <c r="M1" t="s">
         <v>14</v>
       </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -511,7 +554,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -549,9 +592,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
@@ -581,10 +624,203 @@
         <v>46832</v>
       </c>
       <c r="K4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L4">
         <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>300000</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>400000</v>
+      </c>
+      <c r="I5" s="1">
+        <v>45703</v>
+      </c>
+      <c r="J5" s="1">
+        <v>46101</v>
+      </c>
+      <c r="K5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>300000</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>400000</v>
+      </c>
+      <c r="I6" s="1">
+        <v>45703</v>
+      </c>
+      <c r="J6" s="1">
+        <v>46101</v>
+      </c>
+      <c r="K6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>300000</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>400000</v>
+      </c>
+      <c r="I7" s="1">
+        <v>45703</v>
+      </c>
+      <c r="J7" s="1">
+        <v>46101</v>
+      </c>
+      <c r="K7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>300000</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>400000</v>
+      </c>
+      <c r="I8" s="1">
+        <v>45703</v>
+      </c>
+      <c r="J8" s="1">
+        <v>46101</v>
+      </c>
+      <c r="K8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>300000</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>400000</v>
+      </c>
+      <c r="I9" s="1">
+        <v>45703</v>
+      </c>
+      <c r="J9" s="1">
+        <v>46101</v>
+      </c>
+      <c r="K9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/ProjectList.xlsx
+++ b/data/ProjectList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyeyo\SC2002-Group-Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B74F7E2-D486-4C43-8872-EE4D0B7A9637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6287622-F05E-43DA-9867-E0583CD9A731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
   <si>
     <t>Project Name</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>false</t>
+  </si>
+  <si>
+    <t>Homeless</t>
   </si>
 </sst>
 </file>
@@ -458,7 +461,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -591,6 +594,9 @@
       <c r="L3">
         <v>4</v>
       </c>
+      <c r="M3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">

--- a/data/ProjectList.xlsx
+++ b/data/ProjectList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyeyo\SC2002-Group-Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6287622-F05E-43DA-9867-E0583CD9A731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8DF708-BCE1-494F-879D-AF80535CD087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
   <si>
     <t>Project Name</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>Homeless</t>
+  </si>
+  <si>
+    <t>Primary School Student</t>
   </si>
 </sst>
 </file>
@@ -461,7 +464,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -787,6 +790,9 @@
       <c r="L8">
         <v>1</v>
       </c>
+      <c r="M8" t="s">
+        <v>38</v>
+      </c>
       <c r="N8" s="2" t="s">
         <v>36</v>
       </c>
